--- a/medicine/Sexualité et sexologie/Şımarık/Şımarık.xlsx
+++ b/medicine/Sexualité et sexologie/Şımarık/Şımarık.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%9E%C4%B1mar%C4%B1k</t>
+          <t>Şımarık</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Şımarık est le titre d'une chanson de Tarkan écrite par Sezen Aksu, et composée par Tarkan et Ozan Çolakoğlu. 
 Initialement extraite de l'album Ölürüm Sana, la chanson Şımarık est également présente sur le premier best of de Tarkan sorti en France en 1997 puis dans le reste de l'Europe en 1998.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%9E%C4%B1mar%C4%B1k</t>
+          <t>Şımarık</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Formats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>CD single France
 Şımarık (Radio Edit) 3:10
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%9E%C4%B1mar%C4%B1k</t>
+          <t>Şımarık</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,6 +567,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C5%9E%C4%B1mar%C4%B1k</t>
+          <t>Şımarık</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Reprises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La chanson a été reprise plusieurs fois, entre autres en 2002 par la chanteuse australienne Holly Valance en anglais sous le titre Kiss Kiss.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C5%9E%C4%B1mar%C4%B1k</t>
+          <t>Şımarık</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Au cinéma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On retrouve la chanson dans plusieurs films, dont Beau Travail.
 </t>
